--- a/output/google_maps_data_ATM_Kulon_Progo.xlsx
+++ b/output/google_maps_data_ATM_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 774440</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>-7.86498</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.86498</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.154083</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be5386f23:0x8cb2128080e3518e!8m2!3d-7.86498!4d110.154083!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s02bz6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be5386f23:0x8cb2128080e3518e!8m2!3d-7.86498!4d110.154083!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s02bz6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -548,25 +542,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>-7.835675</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.835675</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.219847</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Bpd/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa30f279c8a5:0xbc942bc1b93af153!8m2!3d-7.8356754!4d110.2198469!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f10569r0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Bpd/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa30f279c8a5:0xbc942bc1b93af153!8m2!3d-7.8356754!4d110.2198469!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f10569r0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -585,25 +578,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.893979</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.893979</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.143934</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Bendungan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcab9a5f4b57:0x3f4dc413b30fb1b4!8m2!3d-7.8939789!4d110.1439339!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g6ngzf0c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Bendungan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcab9a5f4b57:0x3f4dc413b30fb1b4!8m2!3d-7.8939789!4d110.1439339!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g6ngzf0c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -622,25 +614,24 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.717941</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.717941</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.224125</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcd133b5c7:0xa3de52d7fb5a1ee7!8m2!3d-7.7179405!4d110.2241245!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11ggbbwsw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcd133b5c7:0xa3de52d7fb5a1ee7!8m2!3d-7.7179405!4d110.2241245!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11ggbbwsw5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -659,25 +650,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>-7.845016</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.845016</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.218313</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb298ef20c5d:0x77674a0e2d17c803!8m2!3d-7.8450158!4d110.2183129!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11km23yvqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb298ef20c5d:0x77674a0e2d17c803!8m2!3d-7.8450158!4d110.2183129!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11km23yvqx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -704,21 +694,20 @@
           <t>1 500 046</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="E7" t="n">
         <v>4.6</v>
       </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Brigjen+Katamso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3957ac5eb7:0xbf26f54d1c545998!8m2!3d-7.8633833!4d110.1575458!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6x99z5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Brigjen+Katamso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3957ac5eb7:0xbf26f54d1c545998!8m2!3d-7.8633833!4d110.1575458!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6x99z5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -737,25 +726,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>-7.857475</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.857475</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.156532</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BANK+BRI+Jalan+Bhayangkara/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb24c8490dc5:0xe2a789805a6cf50!8m2!3d-7.857475!4d110.156532!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s0rrqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BANK+BRI+Jalan+Bhayangkara/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb24c8490dc5:0xe2a789805a6cf50!8m2!3d-7.857475!4d110.156532!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s0rrqw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -778,25 +766,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>-7.716455</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.716455</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.224824</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Unit+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcbc60942d:0xd63acb09a4e9c35b!8m2!3d-7.7164547!4d110.2248236!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c2pw1zb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Unit+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcbc60942d:0xd63acb09a4e9c35b!8m2!3d-7.7164547!4d110.2248236!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c2pw1zb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -815,21 +802,20 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="E10" t="n">
         <v>5</v>
       </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+SAMSAT+KULON+PROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb15216b1169:0x222e82c8159f4c31!8m2!3d-7.86673!4d110.1667613!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g72428g8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+SAMSAT+KULON+PROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb15216b1169:0x222e82c8159f4c31!8m2!3d-7.86673!4d110.1667613!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g72428g8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -848,21 +834,20 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="E11" t="n">
         <v>2.9</v>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa232efcc7b3:0x246bddf7c6349ee9!8m2!3d-7.8267788!4d110.2241215!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f4qnrlsq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa232efcc7b3:0x246bddf7c6349ee9!8m2!3d-7.8267788!4d110.2241215!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f4qnrlsq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -881,25 +866,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.848293</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.848293</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.168023</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Pengasih/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb1e38556a53:0xe950d1fa9d3c3f07!8m2!3d-7.848293!4d110.1680232!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzrprx3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Pengasih/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb1e38556a53:0xe950d1fa9d3c3f07!8m2!3d-7.848293!4d110.1680232!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzrprx3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -926,25 +910,24 @@
           <t>(0274) 773146</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>-7.865637</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.865637</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.157315</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb38d89a84bb:0x21f86cf7c30b57dd!8m2!3d-7.8656366!4d110.1573154!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6sx1pz3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb38d89a84bb:0x21f86cf7c30b57dd!8m2!3d-7.8656366!4d110.1573154!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6sx1pz3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -963,25 +946,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>-7.760896</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.760896</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.210559</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af095b638d043:0xec86d6b0ae6a44e!8m2!3d-7.7608958!4d110.2105593!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F1pzyjh_v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af095b638d043:0xec86d6b0ae6a44e!8m2!3d-7.7608958!4d110.2105593!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F1pzyjh_v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1008,25 +990,24 @@
           <t>1 500 046</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.872097</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.872097</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.153858</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Pahlawan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb46411d2a53:0xb49561b549cf4ea5!8m2!3d-7.8720969!4d110.153858!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6wkbfwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Jalan+Pahlawan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb46411d2a53:0xb49561b549cf4ea5!8m2!3d-7.8720969!4d110.153858!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6wkbfwb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1046,22 +1027,21 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.886936</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.886936</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.072977</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae5007151bdcb:0x21b8e6cd55a9a3b3!8m2!3d-7.8869357!4d110.0729774!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11y4gr4c2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1080,25 +1060,24 @@
           <t>0811-2652-757</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>3.8</v>
+        <v>-7.766947</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.766947</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.209365</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Nanggulan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af0e0db0e9b69:0x85169e796af7df5!8m2!3d-7.7669467!4d110.2093648!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xn1wxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Nanggulan/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af0e0db0e9b69:0x85169e796af7df5!8m2!3d-7.7669467!4d110.2093648!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xn1wxn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1121,21 +1100,20 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="E18" t="n">
         <v>4.7</v>
       </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3b1c6cc063:0x37c979c0b045ee47!8m2!3d-7.8600237!4d110.1581285!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6d4z8nk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3b1c6cc063:0x37c979c0b045ee47!8m2!3d-7.8600237!4d110.1581285!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6d4z8nk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1155,22 +1133,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.834343</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.834343</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.220591</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BCA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbe22935bbf7:0x60fd73f0f4d9c5a5!8m2!3d-7.8343429!4d110.2205913!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11tnfsnx5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1185,21 +1162,20 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="E20" t="n">
         <v>3.8</v>
       </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Sidorejo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afec1fe0b549d:0xc7a7986efb53c7f6!8m2!3d-7.9041486!4d110.2649659!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11cknf3vr7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Sidorejo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afec1fe0b549d:0xc7a7986efb53c7f6!8m2!3d-7.9041486!4d110.2649659!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11cknf3vr7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1218,21 +1194,20 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="E21" t="n">
         <v>4</v>
       </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Glagah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae39a27dbc7b9:0x7d14f932227463!8m2!3d-7.9057389!4d110.0789347!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hck0r18h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Glagah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae39a27dbc7b9:0x7d14f932227463!8m2!3d-7.9057389!4d110.0789347!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hck0r18h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1251,25 +1226,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>3.8</v>
+        <v>-7.900307</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.900307</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.059934</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Center/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae32bb5ef675f:0xd8e0e8346b6c4a7e!8m2!3d-7.900307!4d110.0599338!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fqc92fnf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Center/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae32bb5ef675f:0xd8e0e8346b6c4a7e!8m2!3d-7.900307!4d110.0599338!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fqc92fnf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1288,25 +1262,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.9</v>
+        <v>-7.857557</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.857557</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.15655</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Adhiyaksa/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb24b63baf65:0x135b36a7a529b4cf!8m2!3d-7.8575574!4d110.15655!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11dx9dn19g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Adhiyaksa/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb24b63baf65:0x135b36a7a529b4cf!8m2!3d-7.8575574!4d110.15655!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11dx9dn19g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1325,25 +1298,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.771303</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.771303</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.184338</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Girimulyo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af056fb8c6713:0xb5dd1d354fcd8a57!8m2!3d-7.771303!4d110.1843383!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xz3n4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Girimulyo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af056fb8c6713:0xb5dd1d354fcd8a57!8m2!3d-7.771303!4d110.1843383!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c0xz3n4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1362,21 +1334,20 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
+      <c r="E25" t="n">
         <v>4</v>
       </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BANK+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb22b80c6763:0xcb765295df72f531!8m2!3d-7.8570265!4d110.1626505!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hc_wfk10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BANK+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb22b80c6763:0xcb765295df72f531!8m2!3d-7.8570265!4d110.1626505!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hc_wfk10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1395,25 +1366,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>-7.951546</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.951546</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.205776</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Boro+Galur/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afd9682a0b9ad:0x3c9a02316dfd960f!8m2!3d-7.9515459!4d110.2057755!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b70h1v9q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Boro+Galur/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afd9682a0b9ad:0x3c9a02316dfd960f!8m2!3d-7.9515459!4d110.2057755!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b70h1v9q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1432,25 +1402,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>-7.928062</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.928062</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.147104</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Pleret/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcd6862616cd:0x28e376e23e16fbda!8m2!3d-7.928062!4d110.1471036!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11ggmlgzjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Pleret/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcd6862616cd:0x28e376e23e16fbda!8m2!3d-7.928062!4d110.1471036!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11ggmlgzjx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1470,22 +1439,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-7.820859</v>
+      </c>
       <c r="G28" t="n">
-        <v>-7.820859</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.225347</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Atm+Bank+Bpd+Diy/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa19b5b3cd97:0xe66abb0fb0fa21a0!8m2!3d-7.8208586!4d110.2253471!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11t49zt9hy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1508,25 +1476,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.85859</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.85859</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.14806</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+RSUD.+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb31dfc6b9e9:0x10bf3f2e483a5243!8m2!3d-7.85859!4d110.14806!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fxzs845k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+RSUD.+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb31dfc6b9e9:0x10bf3f2e483a5243!8m2!3d-7.85859!4d110.14806!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fxzs845k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1545,25 +1512,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>-7.867144</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.867144</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.149807</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb37b7ab1da3:0x8f695948aa604980!8m2!3d-7.8671441!4d110.1498069!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6ryvgxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb37b7ab1da3:0x8f695948aa604980!8m2!3d-7.8671441!4d110.1498069!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6ryvgxc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1582,25 +1548,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>-7.753844</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.753844</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.211882</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af1229dd748a1:0x22bd4e92f6d6b081!8m2!3d-7.7538437!4d110.2118816!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzt91pbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af1229dd748a1:0x22bd4e92f6d6b081!8m2!3d-7.7538437!4d110.2118816!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzt91pbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1623,21 +1588,20 @@
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
+      <c r="E32" t="n">
         <v>4.5</v>
       </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Kota+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb370971773f:0xd04367b10a38d004!8m2!3d-7.865842!4d110.150244!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s_kmbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Kota+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb370971773f:0xd04367b10a38d004!8m2!3d-7.865842!4d110.150244!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b6s_kmbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1665,22 +1629,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.866736</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.866736</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.17533</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+POLRES+KULON+PROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb9a0ee456fd:0xeeff6598a048977b!8m2!3d-7.8667358!4d110.1753298!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11sqkjfcv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1699,25 +1662,24 @@
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>2.3</v>
+      </c>
       <c r="F34" t="n">
-        <v>2.3</v>
+        <v>-7.859327</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.859327</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.160373</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BCA+359A+Indomaret+Diponegoro/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3ce8d2cc01:0xe51ec23bcad3793f!8m2!3d-7.8593268!4d110.1603732!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f401yqh8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BCA+359A+Indomaret+Diponegoro/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3ce8d2cc01:0xe51ec23bcad3793f!8m2!3d-7.8593268!4d110.1603732!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f401yqh8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1736,25 +1698,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>-7.723062</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.723062</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.145791</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRILINK+Tiga+Putra/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af312af62f353:0x88167b2c44311c88!8m2!3d-7.7230619!4d110.1457907!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gnpkj5ww?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRILINK+Tiga+Putra/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af312af62f353:0x88167b2c44311c88!8m2!3d-7.7230619!4d110.1457907!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gnpkj5ww?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1773,25 +1734,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>-7.886949</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.886949</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.082308</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Temon/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae47a22f69983:0x10ddda27ca4f665e!8m2!3d-7.8869493!4d110.0823084!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c3xdh9gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Temon/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae47a22f69983:0x10ddda27ca4f665e!8m2!3d-7.8869493!4d110.0823084!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c3xdh9gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1810,25 +1770,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.668945</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.668945</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.16551</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Samigaluh/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af2ecdd336109:0x14b406d013e4afa0!8m2!3d-7.6689445!4d110.1655096!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f1w9sr41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Samigaluh/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af2ecdd336109:0x14b406d013e4afa0!8m2!3d-7.6689445!4d110.1655096!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f1w9sr41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1847,21 +1806,20 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
+      <c r="E38" t="n">
         <v>4.2</v>
       </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afe76407bc859:0x38b31eaafd37fc42!8m2!3d-7.9403609!4d110.237128!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fzf6wsxw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afe76407bc859:0x38b31eaafd37fc42!8m2!3d-7.9403609!4d110.237128!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11fzf6wsxw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1880,25 +1838,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.7</v>
+        <v>-7.887407</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.887407</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.081959</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae47a19323011:0x413ac2ddf9d4f90c!8m2!3d-7.8874073!4d110.0819591!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11cllfzzm6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae47a19323011:0x413ac2ddf9d4f90c!8m2!3d-7.8874073!4d110.0819591!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11cllfzzm6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1917,25 +1874,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.6</v>
+        <v>-7.876297</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.876297</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.206</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+Unit+Kenteng/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb8dffc3f067:0x5e9acbacf255841!8m2!3d-7.8762966!4d110.2059999!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bwp1tyqt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1954,25 +1910,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.858657</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.858657</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.14784</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+RSUD+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae4cab4bef4cd:0x98e5aee6cb55411e!8m2!3d-7.858657!4d110.1478395!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F1pzyfn42r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+RSUD+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae4cab4bef4cd:0x98e5aee6cb55411e!8m2!3d-7.858657!4d110.1478395!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F1pzyfn42r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1991,25 +1946,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>-7.859388</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.859388</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.160328</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Indomaret+jalan+Diponegoro/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cef001eaf:0x9bb96a9fe2412e92!8m2!3d-7.8593882!4d110.1603283!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b75f3_bl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Indomaret+jalan+Diponegoro/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cef001eaf:0x9bb96a9fe2412e92!8m2!3d-7.8593882!4d110.1603283!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11b75f3_bl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2036,25 +1990,24 @@
           <t>(0274) 6472009</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.8</v>
+        <v>-7.841628</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.841628</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.218815</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Kulon+Progo+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3c00000001:0x736db09a255ad1d2!8m2!3d-7.841628!4d110.2188152!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ygbb7s2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Kulon+Progo+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3c00000001:0x736db09a255ad1d2!8m2!3d-7.841628!4d110.2188152!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ygbb7s2c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2077,25 +2030,24 @@
           <t>0856-3040-1999</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.896458</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.896458</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.173209</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SABAH+MURAI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc9af9d35943:0x24d98dc59ed2472b!8m2!3d-7.8964583!4d110.1732094!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c602qyxd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SABAH+MURAI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc9af9d35943:0x24d98dc59ed2472b!8m2!3d-7.8964583!4d110.1732094!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c602qyxd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2115,22 +2067,21 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-7.651239</v>
+      </c>
       <c r="G45" t="n">
-        <v>-7.651239</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.248632</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BRI+BERSAMA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af4bb3f3b0e47:0xb7e86a52eace5d0d!8m2!3d-7.6512388!4d110.2486317!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11dxrxqcc2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2145,25 +2096,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.764703</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.764703</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.197143</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+Brilink+Sri+Lestari/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af0fd0b9eb9d1:0x74d8aee335793634!8m2!3d-7.764703!4d110.197143!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f53md3qx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+Brilink+Sri+Lestari/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af0fd0b9eb9d1:0x74d8aee335793634!8m2!3d-7.764703!4d110.197143!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f53md3qx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2182,25 +2132,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>-7.841333</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.841333</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.100415</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Kokap/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae505960a40eb:0xc28b86ad13570ceb!8m2!3d-7.8413333!4d110.1004147!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hck0p_bd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Unit+Kokap/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae505960a40eb:0xc28b86ad13570ceb!8m2!3d-7.8413333!4d110.1004147!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hck0p_bd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2227,25 +2176,24 @@
           <t>(0274) 6472615</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.887122</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.887122</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.077745</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Pasar+Temon/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae4713fffffff:0x7f3623bff67603a6!8m2!3d-7.8871216!4d110.077745!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ygbb6wcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Mandiri+KCP+Pasar+Temon/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae4713fffffff:0x7f3623bff67603a6!8m2!3d-7.8871216!4d110.077745!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ygbb6wcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2265,22 +2213,21 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-7.886255</v>
+      </c>
       <c r="G49" t="n">
-        <v>-7.886255</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.057517</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae40335b9eab1:0xf93efeabbae1001a!8m2!3d-7.8862552!4d110.0575168!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11bzzwvdls?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2295,25 +2242,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.898605</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.898605</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.144468</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+BRI+Link+Agus+Mas+putra/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcadbfad86fd:0x1986011838c16197!8m2!3d-7.8986051!4d110.144468!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f15lhg9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+BRI+Link+Agus+Mas+putra/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afcadbfad86fd:0x1986011838c16197!8m2!3d-7.8986051!4d110.144468!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11f15lhg9t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2333,22 +2279,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.858301</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.858301</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.159722</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BPD+Kas+Binangun/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cc84b2d93:0x34328cf9c2d5e0e5!8m2!3d-7.8583007!4d110.1597217!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11hcrcq9m2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2363,25 +2308,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.5</v>
+        <v>-7.896733</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.896733</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.222877</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+BRILINK+Sidik+Purnama+Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc10102cb55d:0x9f48e63f7bfc47a1!8m2!3d-7.896733!4d110.2228773!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gdzfk255?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+BRILINK+Sidik+Purnama+Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc10102cb55d:0x9f48e63f7bfc47a1!8m2!3d-7.896733!4d110.2228773!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gdzfk255?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2409,22 +2353,21 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-7.871125</v>
+      </c>
       <c r="G53" t="n">
-        <v>-7.871125</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.138051</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+PT.+SUNGCHANG/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbd84e05e10d:0xc5c34f424bea3442!8m2!3d-7.8711252!4d110.1380511!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11rqz2nwqh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2448,22 +2391,21 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>-7.674702</v>
+      </c>
       <c r="G54" t="n">
-        <v>-7.674702</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.262743</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+KALIBAWANG+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af5c06bf812cb:0x5affb4442333acb6!8m2!3d-7.6747017!4d110.2627433!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11sqkjs10x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2487,22 +2429,21 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>-7.865622</v>
+      </c>
       <c r="G55" t="n">
-        <v>-7.865622</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.157145</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+KCP+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb149b9f77c1:0x7f3eac3517e49bfa!8m2!3d-7.8656222!4d110.1571451!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11pzym9s_9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2526,22 +2467,21 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.905765</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.905765</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.170003</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+PANJATAN+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afd53dd57f1fd:0x759110224f415734!8m2!3d-7.9057651!4d110.1700029!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11rqz3r6sx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2565,22 +2505,21 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-7.867199</v>
+      </c>
       <c r="G57" t="n">
-        <v>-7.867199</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.149803</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+WATES+1/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb80184ec3f5:0xa277964efe98ba04!8m2!3d-7.867199!4d110.1498027!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11pzyj2_r7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2595,25 +2534,24 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.771819</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.771819</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.13245</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+BRILINK+Kasini/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7aefd1615c7227:0x5f479ab16f6650ac!8m2!3d-7.7718189!4d110.1324503!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gg729ljc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+BRILINK+Kasini/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7aefd1615c7227:0x5f479ab16f6650ac!8m2!3d-7.7718189!4d110.1324503!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11gg729ljc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2641,22 +2579,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.894002</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.894002</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.151815</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+SAMIGALUH+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afdf7f3fb9c27:0x666b94a40ae6a417!8m2!3d-7.8940018!4d110.1518146!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11pzyj716k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2680,22 +2617,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>-7.876093</v>
+      </c>
       <c r="G60" t="n">
-        <v>-7.876093</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.205931</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+KARANGSEWU+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbc2845304b5:0x7a48e76e8c557263!8m2!3d-7.8760926!4d110.2059308!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11pzykr79s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2711,22 +2647,21 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>-7.865663</v>
+      </c>
       <c r="G61" t="n">
-        <v>-7.865663</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.157308</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mesin+Setor+Tunai+BRI+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbf82bd05fef:0x76ec01b538c36d5d!8m2!3d-7.8656632!4d110.1573077!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11g0hy_q6w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2741,21 +2676,20 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="E62" t="n">
         <v>4.3</v>
       </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Mandiri/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddc528ce2d5:0x282775e6f540cac7!8m2!3d-7.9453234!4d110.2262857!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgENZ3JvY2VyeV9zdG9yZeABAA!16s%2Fg%2F11c6_jspbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Mandiri/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddc528ce2d5:0x282775e6f540cac7!8m2!3d-7.9453234!4d110.2262857!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgENZ3JvY2VyeV9zdG9yZeABAA!16s%2Fg%2F11c6_jspbs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -2782,25 +2716,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
       <c r="F63" t="n">
-        <v>4</v>
+        <v>-7.716804</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.716804</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.272517</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Unit+2+Minggir/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af4286de49215:0x1f48d9b15ccb4729!8m2!3d-7.7168035!4d110.2725173!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c542hz_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Unit+2+Minggir/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af4286de49215:0x1f48d9b15ccb4729!8m2!3d-7.7168035!4d110.2725173!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11c542hz_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2823,25 +2756,24 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>-7.903491</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.903491</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.168323</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc96992d4483:0xf5b5a9404433f179!8m2!3d-7.9034915!4d110.1683227!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpgrz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc96992d4483:0xf5b5a9404433f179!8m2!3d-7.9034915!4d110.1683227!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpgrz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2864,25 +2796,24 @@
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F65" t="n">
-        <v>3.8</v>
+        <v>-7.717901</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.717901</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.224157</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+UNIT+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcd6c60523:0x603ce557dd511818!8m2!3d-7.7179006!4d110.2241571!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11cm0ms32w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+UNIT+Dekso/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af3fcd6c60523:0x603ce557dd511818!8m2!3d-7.7179006!4d110.2241571!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11cm0ms32w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2910,22 +2841,21 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>-7.886349</v>
+      </c>
       <c r="G66" t="n">
-        <v>-7.886349</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.057821</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+JANGKARAN/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae55761ea05c7:0xd83150060817060f!8m2!3d-7.8863487!4d110.0578214!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11swcby3pk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2940,25 +2870,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.5</v>
+        <v>-7.835678</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.835678</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.219855</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Capem+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa30ed9cacff:0x335a8a799becd60!8m2!3d-7.8356777!4d110.2198547!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6gm0vkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Capem+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa30ed9cacff:0x335a8a799becd60!8m2!3d-7.8356777!4d110.2198547!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6gm0vkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -2977,25 +2906,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.765815</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.765815</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.231354</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BSI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af15dcdce501f:0x11c9062d3c8ad700!8m2!3d-7.7658146!4d110.2313537!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11tmyrbhkb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BSI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af15dcdce501f:0x11c9062d3c8ad700!8m2!3d-7.7658146!4d110.2313537!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11tmyrbhkb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3022,25 +2950,24 @@
           <t>(021) 1500280</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.2</v>
+        <v>-7.834364</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.834364</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.220604</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Indomaret+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3c83331e8f:0x7df8fcd1595ebdd4!8m2!3d-7.834364!4d110.220604!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgERY29udmVuaWVuY2Vfc3RvcmXgAQA!16s%2Fg%2F1pzsyx306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Indomaret+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3c83331e8f:0x7df8fcd1595ebdd4!8m2!3d-7.834364!4d110.220604!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgERY29udmVuaWVuY2Vfc3RvcmXgAQA!16s%2Fg%2F1pzsyx306?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3059,25 +2986,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.1</v>
+        <v>-7.66898</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.66898</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.165562</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Samigaluh/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af2eeffb5ad6d:0x1c35d13dee9fdf4f!8m2!3d-7.6689799!4d110.1655618!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bc7smf9r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Samigaluh/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af2eeffb5ad6d:0x1c35d13dee9fdf4f!8m2!3d-7.6689799!4d110.1655618!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bc7smf9r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3096,25 +3022,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.3</v>
+        <v>-7.867741</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.867741</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.060112</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BUKP+Kokap/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae43b81195ec7:0xe948e3e95fa6a896!8m2!3d-7.8677412!4d110.0601118!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpk0jr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BUKP+Kokap/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae43b81195ec7:0xe948e3e95fa6a896!8m2!3d-7.8677412!4d110.0601118!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpk0jr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3141,21 +3066,20 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
+      <c r="E72" t="n">
         <v>4.7</v>
       </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BCA+KCP+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be53ad389:0xc3c0dec4655e0aa6!8m2!3d-7.864916!4d110.154073!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6r_p672?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BCA+KCP+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be53ad389:0xc3c0dec4655e0aa6!8m2!3d-7.864916!4d110.154073!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6r_p672?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3178,25 +3102,24 @@
           <t>(0274) 7110668</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.5</v>
+        <v>-7.760926</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.760926</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.210578</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BPD+Yogyakarta/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af11fdd4ae07b:0x8ad0f49725f2922f!8m2!3d-7.7609263!4d110.2105777!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ptwbr4v7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BPD+Yogyakarta/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af11fdd4ae07b:0x8ad0f49725f2922f!8m2!3d-7.7609263!4d110.2105777!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1ptwbr4v7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -3215,21 +3138,20 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
+      <c r="E74" t="n">
         <v>4</v>
       </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Lendah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afdacb32ae4cf:0x2d4e568c0cefc9c1!8m2!3d-7.9282976!4d110.1948076!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b76q26g4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Lendah/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afdacb32ae4cf:0x2d4e568c0cefc9c1!8m2!3d-7.9282976!4d110.1948076!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b76q26g4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3257,22 +3179,21 @@
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>-7.848265</v>
+      </c>
       <c r="G75" t="n">
-        <v>-7.848265</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.167971</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+PENGASIH/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afba19b28acfd:0xa5db219293bbd731!8m2!3d-7.8482649!4d110.1679708!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11swcc0gf8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3295,25 +3216,24 @@
           <t>(0274) 2890203</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.1</v>
+        <v>-7.862305</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.862305</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.15778</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BTN+KCP+WATES+KULONPROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3bf732ab55:0xe10b94514526cf29!8m2!3d-7.8623047!4d110.1577798!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11cs9yjktm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BTN+KCP+WATES+KULONPROGO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3bf732ab55:0xe10b94514526cf29!8m2!3d-7.8623047!4d110.1577798!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11cs9yjktm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3336,25 +3256,24 @@
           <t>(0274) 7100113</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F77" t="n">
-        <v>3.4</v>
+        <v>-7.826611</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.826611</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.224093</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Rakyat+Indonesia.+PT/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbefed41d5eb:0xb371f4a5767aed0b!8m2!3d-7.8266114!4d110.2240927!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6dpzd7y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Rakyat+Indonesia.+PT/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbefed41d5eb:0xb371f4a5767aed0b!8m2!3d-7.8266114!4d110.2240927!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6dpzd7y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3373,25 +3292,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.1</v>
+        <v>-7.876277</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.876277</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.205396</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Kas+Tugu+Pensil/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb919aee167b:0x4f4bda06cce2243c!8m2!3d-7.8762769!4d110.205396!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b806kj9r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Kas+Tugu+Pensil/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb919aee167b:0x4f4bda06cce2243c!8m2!3d-7.8762769!4d110.205396!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b806kj9r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3414,25 +3332,24 @@
           <t>(0274) 773178</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.6</v>
+        <v>-7.860107</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.860107</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.158106</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3c81f1c021:0x236409e632e16ad!8m2!3d-7.8601071!4d110.1581056!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzpl4yqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3c81f1c021:0x236409e632e16ad!8m2!3d-7.8601071!4d110.1581056!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzpl4yqp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3460,22 +3377,21 @@
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>-7.857549</v>
+      </c>
       <c r="G80" t="n">
-        <v>-7.857549</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.156585</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+ADHIYAKSA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb53114f0d51:0xb464d241574c1df3!8m2!3d-7.8575493!4d110.1565854!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11q3nqb82m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3499,22 +3415,21 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>-7.82675</v>
+      </c>
       <c r="G81" t="n">
-        <v>-7.82675</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.22413</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+SENTOLO/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afbb20e78561f:0x1266e77281a035e8!8m2!3d-7.82675!4d110.22413!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11swcc3f75?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3533,21 +3448,20 @@
           <t>0851-0010-2521</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="n">
+      <c r="E82" t="n">
         <v>3.4</v>
       </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Galur/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddbc73cd9cf:0x80ddfcd2feb87b7d!8m2!3d-7.9398671!4d110.2386463!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzphwpy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Galur/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afddbc73cd9cf:0x80ddfcd2feb87b7d!8m2!3d-7.9398671!4d110.2386463!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzphwpy7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3575,22 +3489,21 @@
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>-7.865802</v>
+      </c>
       <c r="G83" t="n">
-        <v>-7.865802</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.15031</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+WATES+KOTA/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb996579a73b:0x9be999670d533560!8m2!3d-7.8658016!4d110.1503101!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11q3y69zpx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3614,22 +3527,21 @@
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>-7.894024</v>
+      </c>
       <c r="G84" t="n">
-        <v>-7.894024</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.144413</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+BRI+UNIT+WATES+I/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afdd47c209f69:0xc26c8bf2909bb05c!8m2!3d-7.8940236!4d110.1444129!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQNhdG3gAQA!16s%2Fg%2F11rtrkzb4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3644,25 +3556,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.4</v>
+        <v>-7.925543</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.925543</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.13375</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae32eaf3c1e35:0xb7e1bcdea2ffb21b!8m2!3d-7.925543!4d110.1337498!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpw3wm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae32eaf3c1e35:0xb7e1bcdea2ffb21b!8m2!3d-7.925543!4d110.1337498!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpw3wm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3685,25 +3596,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F86" t="n">
-        <v>3.9</v>
+        <v>-7.865726</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.865726</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.157187</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb392740902d:0x93547e17015f2e7e!8m2!3d-7.8657259!4d110.1571866!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11csrr8yyy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Cabang+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb392740902d:0x93547e17015f2e7e!8m2!3d-7.8657259!4d110.1571866!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11csrr8yyy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3726,25 +3636,24 @@
           <t>(0274) 773384</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.7</v>
+        <v>-7.858441</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.858441</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.159429</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Kantor+Kas+Binangun/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cc9acdd61:0x9f54be0105044c10!8m2!3d-7.8584415!4d110.1594286!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzrcdv6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY+Kantor+Kas+Binangun/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3cc9acdd61:0x9f54be0105044c10!8m2!3d-7.8584415!4d110.1594286!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzrcdv6c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3767,21 +3676,20 @@
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
+      <c r="E88" t="n">
         <v>4.2</v>
       </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m13!1m3!2m2!1sATM+Kulon+Progo!6e2!3m8!1s0x2e7afcab9a8d9e8f:0x8e27ff67dbf3e617!8m2!3d-7.8939785!4d110.1438976!9m1!1b1!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpq86g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m13!1m3!2m2!1sATM+Kulon+Progo!6e2!3m8!1s0x2e7afcab9a8d9e8f:0x8e27ff67dbf3e617!8m2!3d-7.8939785!4d110.1438976!9m1!1b1!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrpq86g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3800,25 +3708,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>-7.833695</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.833695</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.218169</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Teras+BRI+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3a04c86531:0xe501642bcefa5075!8m2!3d-7.8336952!4d110.2181687!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11f0_dl7wy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Teras+BRI+Sentolo/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afa3a04c86531:0xe501642bcefa5075!8m2!3d-7.8336952!4d110.2181687!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11f0_dl7wy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3845,25 +3752,24 @@
           <t>(0274) 5041027</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.4</v>
+        <v>-7.865599</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.865599</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.157635</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+Woori+Saudara+KCP+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb392f57e3f3:0x6a68be49eb6862ed!8m2!3d-7.8655985!4d110.1576346!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6szszq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+Woori+Saudara+KCP+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb392f57e3f3:0x6a68be49eb6862ed!8m2!3d-7.8655985!4d110.1576346!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6szszq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3890,25 +3796,24 @@
           <t>0816-500-580</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.4</v>
+        <v>-7.862072</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.862072</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.157756</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Indomaret+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be39b0f11:0x93fcce49a0aa5739!8m2!3d-7.8620722!4d110.157756!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgERY29udmVuaWVuY2Vfc3RvcmXgAQA!16s%2Fg%2F11b6xd_2tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Indomaret+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3be39b0f11:0x93fcce49a0aa5739!8m2!3d-7.8620722!4d110.157756!15sCg9BVE0gS3Vsb24gUHJvZ29aESIPYXRtIGt1bG9uIHByb2dvkgERY29udmVuaWVuY2Vfc3RvcmXgAQA!16s%2Fg%2F11b6xd_2tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3927,25 +3832,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.5</v>
+        <v>-7.876296</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.876296</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.206</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb8dfeffcb99:0xaf04c73d23e18ea4!8m2!3d-7.8762964!4d110.2059995!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrgp2p7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb8dfeffcb99:0xaf04c73d23e18ea4!8m2!3d-7.8762964!4d110.2059995!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bzrgp2p7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3968,25 +3872,24 @@
           <t>(0274) 773047</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.5</v>
+        <v>-7.863764</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.863764</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.152559</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BANK+BTN+Kantor+Layanan+Kas/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb39fbf27853:0xb53c66fd19339cd7!8m2!3d-7.8637637!4d110.1525591!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6s3p96t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BANK+BTN+Kantor+Layanan+Kas/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb39fbf27853:0xb53c66fd19339cd7!8m2!3d-7.8637637!4d110.1525591!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6s3p96t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4009,25 +3912,24 @@
           <t>0818-0425-0810</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>-7.925907</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.925907</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.190889</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KSU+Mina+Prospek+Mandiri/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc5455555555:0x2c3f653af9badc7f!8m2!3d-7.9259067!4d110.1908889!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bc7szwf_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KSU+Mina+Prospek+Mandiri/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afc5455555555:0x2c3f653af9badc7f!8m2!3d-7.9259067!4d110.1908889!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11bc7szwf_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4050,25 +3952,24 @@
           <t>(0274) 773317</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.2</v>
+        <v>-7.857128</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.857128</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.162603</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Swalayan+HW/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb22b7f93527:0xbfb6f1af723b7042!8m2!3d-7.8571285!4d110.1626027!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQtzdXBlcm1hcmtldOABAA!16s%2Fg%2F1pzsvhl_l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Swalayan+HW/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb22b7f93527:0xbfb6f1af723b7042!8m2!3d-7.8571285!4d110.1626027!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQtzdXBlcm1hcmtldOABAA!16s%2Fg%2F1pzsvhl_l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -4095,25 +3996,24 @@
           <t>(0274) 7101752</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>-7.76694</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.76694</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.20935</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+UNIT+Nanggulan+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af11d79aa3acb:0x42e402a7d3ce7afb!8m2!3d-7.76694!4d110.20935!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11sqkjh86t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+UNIT+Nanggulan+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7af11d79aa3acb:0x42e402a7d3ce7afb!8m2!3d-7.76694!4d110.20935!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11sqkjh86t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4140,25 +4040,24 @@
           <t>(0274) 773535</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F97" t="n">
-        <v>2.9</v>
+        <v>-7.848261</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.848261</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.168387</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Pengasih/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb1e384dc141:0x2e6bdfa172218228!8m2!3d-7.8482615!4d110.1683866!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11dfjbrwr6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Pengasih/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb1e384dc141:0x2e6bdfa172218228!8m2!3d-7.8482615!4d110.1683866!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11dfjbrwr6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4177,25 +4076,24 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F98" t="n">
-        <v>3.3</v>
+        <v>-7.840687</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.840687</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.100909</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae505853e46f9:0xe2726659f6c9fa9f!8m2!3d-7.8406868!4d110.1009089!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11c575z1f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BPD+DIY/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7ae505853e46f9:0xe2726659f6c9fa9f!8m2!3d-7.8406868!4d110.1009089!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11c575z1f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4219,22 +4117,21 @@
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>-7.859363</v>
+      </c>
       <c r="G99" t="n">
-        <v>-7.859363</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.147703</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BPD+DIY+-+Kantor+Kas+RSUD+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb4aa218da45:0x3e600ca44217fbc4!8m2!3d-7.8593629!4d110.1477029!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzvnz7nr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4257,25 +4154,24 @@
           <t>(0274) 773475</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F100" t="n">
-        <v>3.3</v>
+        <v>-7.86584</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.86584</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.15036</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BANK+BRI+UNIT+KOTA+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3709655877:0x4be3cc506836f986!8m2!3d-7.86584!4d110.15036!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6sxd0fh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BANK+BRI+UNIT+KOTA+WATES/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3709655877:0x4be3cc506836f986!8m2!3d-7.86584!4d110.15036!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F11b6sxd0fh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4298,25 +4194,24 @@
           <t>(0274) 773073</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.3</v>
+        <v>-7.861422</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.861422</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.158575</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Pasar+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3c705be27d:0x27594a6b6666be29!8m2!3d-7.8614217!4d110.158575!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzsltdfm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+Unit+Pasar+Wates/@-7.86498,109.5773008,10z/data=!4m11!1m3!2m2!1sATM+Kulon+Progo!6e2!3m6!1s0x2e7afb3c705be27d:0x27594a6b6666be29!8m2!3d-7.8614217!4d110.158575!15sCg9BVE0gS3Vsb24gUHJvZ2-SAQRiYW5r4AEA!16s%2Fg%2F1pzsltdfm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
